--- a/data/excel/TravogExpense.xlsx
+++ b/data/excel/TravogExpense.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\Travog\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham.Natkar\git\Travog\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ADB661-8F39-461D-91C6-1F296F155827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD30BE62-2A90-4AE5-9BCD-FCAD2070BA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{CF5A2F7A-4B78-411E-A600-51DCCD9C70AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CF5A2F7A-4B78-411E-A600-51DCCD9C70AE}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseManagementReport" sheetId="31" r:id="rId1"/>
     <sheet name="Travog" sheetId="37" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="38" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1362,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D220513-1ED5-492D-9710-6D47920A6A7B}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,4 +1571,21 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7257F5BE-31C5-47BB-B646-0A19C647EEF4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>